--- a/4- • Normal Distribution Using Excel.xlsx
+++ b/4- • Normal Distribution Using Excel.xlsx
@@ -8,17 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abhishek Wavhal\Desktop\Tops\Stat using Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C99C2E9-8842-482C-BF85-55C831A3B5D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBD3D0B-238E-48E0-ABB4-9EE20201E38F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{F1BD211D-F693-4E55-9C93-EFFDF5E8093D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$C$3:$C$122</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$H$3:$H$122</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -29,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="73">
   <si>
     <t>Full Name</t>
   </si>
@@ -203,6 +199,51 @@
   </si>
   <si>
     <t>[=NORM.DIST(C3,$F$4,$F$5,FALSE)]</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Standard Deviation</t>
+  </si>
+  <si>
+    <t>Sample Variance</t>
+  </si>
+  <si>
+    <t>Kurtosis</t>
+  </si>
+  <si>
+    <t>Skewness</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Largest(2)</t>
+  </si>
+  <si>
+    <t>Smallest(2)</t>
+  </si>
+  <si>
+    <t>Maths Marks</t>
   </si>
 </sst>
 </file>
@@ -210,9 +251,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,6 +263,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -261,7 +310,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -284,11 +333,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -306,8 +375,12 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -387,7 +460,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Social Services Marks</c:v>
+                  <c:v>Maths Marks</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2232,10 +2305,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{517A93BE-D8A8-4520-B870-6186D561228F}">
-  <dimension ref="A2:I122"/>
+  <dimension ref="A2:K122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2247,6 +2320,8 @@
     <col min="7" max="7" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.77734375" customWidth="1"/>
+    <col min="11" max="11" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -2257,10 +2332,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -2496,7 +2571,7 @@
         <v>1.7998754431735636E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -2511,7 +2586,7 @@
         <v>1.7998754431735636E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -2526,7 +2601,7 @@
         <v>1.7998754431735636E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -2541,7 +2616,7 @@
         <v>1.7998754431735636E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -2556,7 +2631,7 @@
         <v>1.7998754431735636E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -2570,8 +2645,12 @@
         <f t="shared" si="0"/>
         <v>2.2601783002771797E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J21" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="K21" s="9"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -2586,7 +2665,7 @@
         <v>2.772399425557474E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -2600,8 +2679,14 @@
         <f t="shared" si="0"/>
         <v>2.772399425557474E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J23" t="s">
+        <v>53</v>
+      </c>
+      <c r="K23">
+        <v>4.0415272410558117E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -2615,8 +2700,14 @@
         <f t="shared" si="0"/>
         <v>3.3218632439245346E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J24" t="s">
+        <v>58</v>
+      </c>
+      <c r="K24">
+        <v>1.417724399634709E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -2630,8 +2721,14 @@
         <f t="shared" si="0"/>
         <v>3.3218632439245346E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J25" t="s">
+        <v>59</v>
+      </c>
+      <c r="K25">
+        <v>4.1227635099540395E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -2645,8 +2742,14 @@
         <f t="shared" si="0"/>
         <v>3.3218632439245346E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J26" t="s">
+        <v>60</v>
+      </c>
+      <c r="K26">
+        <v>1.7998754431735636E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -2660,8 +2763,14 @@
         <f t="shared" si="0"/>
         <v>3.3218632439245346E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J27" t="s">
+        <v>61</v>
+      </c>
+      <c r="K27">
+        <v>1.5530392680107979E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -2675,8 +2784,14 @@
         <f t="shared" si="0"/>
         <v>3.3218632439245346E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J28" t="s">
+        <v>62</v>
+      </c>
+      <c r="K28">
+        <v>2.4119309679835151E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -2690,8 +2805,14 @@
         <f t="shared" si="0"/>
         <v>3.3218632439245346E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J29" t="s">
+        <v>63</v>
+      </c>
+      <c r="K29">
+        <v>-1.4294068914752704</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -2705,8 +2826,14 @@
         <f t="shared" si="0"/>
         <v>3.3218632439245346E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J30" t="s">
+        <v>64</v>
+      </c>
+      <c r="K30">
+        <v>-0.1174776349162068</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>29</v>
       </c>
@@ -2720,8 +2847,14 @@
         <f t="shared" si="0"/>
         <v>3.3218632439245346E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J31" t="s">
+        <v>65</v>
+      </c>
+      <c r="K31">
+        <v>4.3070580229591551E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -2735,8 +2868,14 @@
         <f t="shared" si="0"/>
         <v>3.3218632439245346E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J32" t="s">
+        <v>66</v>
+      </c>
+      <c r="K32">
+        <v>1.7998754431735636E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -2750,8 +2889,14 @@
         <f t="shared" si="0"/>
         <v>3.3218632439245346E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J33" t="s">
+        <v>67</v>
+      </c>
+      <c r="K33">
+        <v>6.106933466132719E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>32</v>
       </c>
@@ -2765,8 +2910,14 @@
         <f t="shared" si="0"/>
         <v>3.3218632439245346E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J34" t="s">
+        <v>68</v>
+      </c>
+      <c r="K34">
+        <v>4.8498326892669743</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>33</v>
       </c>
@@ -2780,8 +2931,14 @@
         <f t="shared" si="0"/>
         <v>3.3218632439245346E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J35" t="s">
+        <v>69</v>
+      </c>
+      <c r="K35">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>34</v>
       </c>
@@ -2795,8 +2952,14 @@
         <f t="shared" si="0"/>
         <v>4.4450044173051283E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J36" t="s">
+        <v>70</v>
+      </c>
+      <c r="K36">
+        <v>6.106933466132719E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>35</v>
       </c>
@@ -2810,8 +2973,14 @@
         <f t="shared" si="0"/>
         <v>4.4450044173051283E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J37" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="K37" s="8">
+        <v>1.7998754431735636E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>36</v>
       </c>
@@ -2825,8 +2994,11 @@
         <f t="shared" si="0"/>
         <v>4.4450044173051283E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>37</v>
       </c>
@@ -2841,7 +3013,7 @@
         <v>4.4450044173051283E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>38</v>
       </c>
@@ -2856,7 +3028,7 @@
         <v>5.4151943001277736E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>39</v>
       </c>
@@ -2871,7 +3043,7 @@
         <v>5.4151943001277736E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>40</v>
       </c>
@@ -2886,7 +3058,7 @@
         <v>5.4151943001277736E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>41</v>
       </c>
@@ -2901,7 +3073,7 @@
         <v>5.4151943001277736E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>42</v>
       </c>
@@ -2916,7 +3088,7 @@
         <v>6.0063037354017565E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>43</v>
       </c>
@@ -2931,7 +3103,7 @@
         <v>6.0063037354017565E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>44</v>
       </c>
@@ -2946,7 +3118,7 @@
         <v>6.0063037354017565E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>45</v>
       </c>
@@ -2961,7 +3133,7 @@
         <v>6.0063037354017565E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>46</v>
       </c>
